--- a/NumDesTools/doc/角色表.xlsx
+++ b/NumDesTools/doc/角色表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pro\ExcelToolsAlbum\ExcelDna-Pro\NumDesTools\NumDesTools\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2688B09E-BC44-4A27-BBC8-98A10BD397EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1906B7A3-1F2F-4077-81B2-6283FC8F7AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15720" activeTab="11" xr2:uid="{A4BD7840-30C9-4290-916A-B671F5CC15EA}"/>
   </bookViews>

--- a/NumDesTools/doc/角色表.xlsx
+++ b/NumDesTools/doc/角色表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pro\ExcelToolsAlbum\ExcelDna-Pro\NumDesTools\NumDesTools\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1906B7A3-1F2F-4077-81B2-6283FC8F7AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20923524-FE3E-45CA-8FF0-C8F3D74551C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15720" activeTab="11" xr2:uid="{A4BD7840-30C9-4290-916A-B671F5CC15EA}"/>
+    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15720" activeTab="11" xr2:uid="{4DED062A-B357-4A38-8DC5-0896257B08F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Role1" sheetId="2" r:id="rId1"/>
@@ -402,7 +402,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA5B1C5-49E8-4BE5-BCCA-240DA60ED8FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7D955D-EF9A-4D8F-9622-5A42974FF9E2}">
   <dimension ref="A3:F102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2416,7 +2416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A7D701F-7D8A-4F0F-B608-03B958722980}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684A8EFF-C018-4A1C-9364-AD3159AF529C}">
   <dimension ref="A3:F102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4430,7 +4430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CADCAC0-53EA-41DD-BED7-366385341857}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE227424-E7DE-48AB-8ECC-0C3A1FD1BFB7}">
   <dimension ref="A3:F102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6444,7 +6444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37342265-830A-471C-BC95-4F560CBD0DCC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{379E41DB-9834-4F83-89E2-E3553CE37B72}">
   <dimension ref="A3:F102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -8458,7 +8458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1EA05C6-DCA3-4DB7-A362-A45A7A9B626A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96AD9EF8-A6DA-4EEF-8952-5BA8C422A785}">
   <dimension ref="A3:F102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10472,7 +10472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F06F7D6A-7E12-4EE2-AEDA-D48A72F45D20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B89164-1453-4DC6-8545-46663A646397}">
   <dimension ref="A3:F102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12486,7 +12486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00A9D2A4-1EF1-4E82-AA17-72480C0B2BF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94CE661E-4C9C-4798-B245-7DB8F3F45AC5}">
   <dimension ref="A3:F102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -14500,7 +14500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A1FF30E-29A7-40B9-A727-D932FAD8A62A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F7F3A0-B7F6-4A96-9035-258A3EAB921E}">
   <dimension ref="A3:F102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16514,7 +16514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7118098-1E84-4C9D-8F24-CE8FE6C194BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A057CA8F-8497-430C-94B6-45C429AB96FF}">
   <dimension ref="A3:F102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -18528,7 +18528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397B9FD8-336E-4C57-919D-5B2B1679F81F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31D43A9-7744-4752-9276-808E2E8FB170}">
   <dimension ref="A3:F102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -20542,7 +20542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7660FF59-6CEF-4EFD-AC08-A3D76FA719FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AFE182E-0483-402E-BC73-3F5B9F36E41F}">
   <dimension ref="A3:F102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -22556,7 +22556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA703562-0F19-4048-81BB-9A9904B5F775}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C7957A-5FA3-47F9-B74F-7AB39D6232EF}">
   <dimension ref="A3:F102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/NumDesTools/doc/角色表.xlsx
+++ b/NumDesTools/doc/角色表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pro\ExcelToolsAlbum\ExcelDna-Pro\NumDesTools\NumDesTools\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20923524-FE3E-45CA-8FF0-C8F3D74551C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721F45D9-1C56-47BE-962E-189B260E662E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15720" activeTab="11" xr2:uid="{4DED062A-B357-4A38-8DC5-0896257B08F1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="11" xr2:uid="{5E576964-A65E-4F1E-B1AD-9B6ED9144387}"/>
   </bookViews>
   <sheets>
     <sheet name="Role1" sheetId="2" r:id="rId1"/>
@@ -402,7 +402,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7D955D-EF9A-4D8F-9622-5A42974FF9E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B181CBD-53DD-4498-963C-E9AA6D6E9B77}">
   <dimension ref="A3:F102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2416,7 +2416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684A8EFF-C018-4A1C-9364-AD3159AF529C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44C27266-F7F5-400C-8A38-3AB355669234}">
   <dimension ref="A3:F102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4430,7 +4430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE227424-E7DE-48AB-8ECC-0C3A1FD1BFB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F6DF91-2185-4F8E-8A93-BE26974FAF28}">
   <dimension ref="A3:F102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6444,7 +6444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{379E41DB-9834-4F83-89E2-E3553CE37B72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1039F4-CD17-4411-9137-CF4CA0FB1E77}">
   <dimension ref="A3:F102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -8458,7 +8458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96AD9EF8-A6DA-4EEF-8952-5BA8C422A785}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D27FC9-8D68-405D-9666-A34AA309E0E5}">
   <dimension ref="A3:F102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10472,7 +10472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B89164-1453-4DC6-8545-46663A646397}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50128BE-AABD-401A-9DBB-7D1E88E85FE7}">
   <dimension ref="A3:F102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12486,7 +12486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94CE661E-4C9C-4798-B245-7DB8F3F45AC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620008C9-47B2-4D02-9784-522E02DA57D8}">
   <dimension ref="A3:F102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -14500,7 +14500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F7F3A0-B7F6-4A96-9035-258A3EAB921E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F76AFC1-76A5-4895-9155-28D0FC3E2150}">
   <dimension ref="A3:F102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16514,7 +16514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A057CA8F-8497-430C-94B6-45C429AB96FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{775D727A-2DC3-4201-B9BA-87F2A9F054EC}">
   <dimension ref="A3:F102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -18528,7 +18528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31D43A9-7744-4752-9276-808E2E8FB170}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{331C9BA4-BE6B-433A-B10F-95B914073E3F}">
   <dimension ref="A3:F102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -20542,7 +20542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AFE182E-0483-402E-BC73-3F5B9F36E41F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD440FB-C9BF-40D6-A31F-86F40B181986}">
   <dimension ref="A3:F102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -22556,7 +22556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C7957A-5FA3-47F9-B74F-7AB39D6232EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32185E50-DD00-402D-8378-BE34E177E8EF}">
   <dimension ref="A3:F102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
